--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB7EE9D-F881-4C46-9AD8-4DC659B479DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F986F-34FA-467C-A053-F44C40DB809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -643,25 +645,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="2.4140625" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="2.3984375" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.58203125" customWidth="1"/>
+    <col min="17" max="17" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -685,7 +687,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -729,7 +731,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -773,11 +775,11 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44554.621527777781</v>
       </c>
       <c r="C4" t="s">
@@ -804,11 +806,11 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44567.647222222222</v>
       </c>
       <c r="C5" t="s">
@@ -827,11 +829,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44567.668055555558</v>
       </c>
       <c r="C6" t="s">
@@ -850,11 +852,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>44567.788888888892</v>
       </c>
       <c r="C7" t="s">
@@ -873,11 +875,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44567.835416666669</v>
       </c>
       <c r="C8" t="s">
@@ -906,11 +908,11 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>44567.879861111112</v>
       </c>
       <c r="C9" t="s">
@@ -926,11 +928,11 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>44568.229166666664</v>
       </c>
       <c r="C10" t="s">
@@ -943,11 +945,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>44586.618750000001</v>
       </c>
       <c r="C11" t="s">
@@ -960,11 +962,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>44589.875694444447</v>
       </c>
       <c r="C12" t="s">
@@ -977,11 +979,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>44589.925000000003</v>
       </c>
       <c r="C13" t="s">
@@ -993,12 +995,13 @@
       <c r="E13">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>44591.927083333336</v>
       </c>
       <c r="C14" t="s">
@@ -1011,11 +1014,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>44604.86041666667</v>
       </c>
       <c r="C15" t="s">
@@ -1031,11 +1034,11 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>44609.384027777778</v>
       </c>
       <c r="C16" t="s">
@@ -1048,17 +1051,17 @@
         <v>62</v>
       </c>
       <c r="K16">
-        <v>1329</v>
+        <v>1446</v>
       </c>
       <c r="L16">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>44609.581944444442</v>
       </c>
       <c r="C17" t="s">
@@ -1077,11 +1080,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>44615.739583333336</v>
       </c>
       <c r="C18" t="s">
@@ -1100,11 +1103,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>44623.383333333331</v>
       </c>
       <c r="C19" t="s">
@@ -1123,11 +1126,11 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>44629.898611111108</v>
       </c>
       <c r="C20" t="s">
@@ -1146,11 +1149,11 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>44630.415277777778</v>
       </c>
       <c r="C21" t="s">
@@ -1164,18 +1167,18 @@
       </c>
       <c r="K21" s="5">
         <f>SUM(K16:K20)</f>
-        <v>9676</v>
+        <v>9793</v>
       </c>
       <c r="L21" s="5">
         <f>SUM(L15:L20)</f>
-        <v>13096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>44631.729861111111</v>
       </c>
       <c r="C22" t="s">
@@ -1188,11 +1191,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>44631.789583333331</v>
       </c>
       <c r="C23" t="s">
@@ -1205,11 +1208,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>44632.386111111111</v>
       </c>
       <c r="C24" t="s">
@@ -1222,11 +1225,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>44632.852083333331</v>
       </c>
       <c r="C25" t="s">
@@ -1239,11 +1242,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>44633.396527777775</v>
       </c>
       <c r="C26" t="s">
@@ -1256,11 +1259,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>44633.626388888886</v>
       </c>
       <c r="C27" t="s">
@@ -1273,11 +1276,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>44634.984722222223</v>
       </c>
       <c r="C28" t="s">
@@ -1290,11 +1293,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>44635.335416666669</v>
       </c>
       <c r="C29" t="s">
@@ -1307,11 +1310,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>44635.961111111108</v>
       </c>
       <c r="C30" t="s">
@@ -1324,11 +1327,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>44637.745833333334</v>
       </c>
       <c r="C31" t="s">
@@ -1341,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E32" s="4">
         <f>SUM(E2:E31)</f>
         <v>1446</v>
@@ -1356,5 +1359,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274F986F-34FA-467C-A053-F44C40DB809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D91B11-ABED-4AA3-8731-C565A372FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>BW2005</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +274,14 @@
   </si>
   <si>
     <t>装工院办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD38588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD06867</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,27 +649,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" customWidth="1"/>
-    <col min="6" max="6" width="2.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="2.4140625" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" ht="27.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -687,7 +693,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,7 +737,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -775,7 +781,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -806,7 +812,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -829,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -852,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -875,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -908,7 +914,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -928,7 +934,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -945,7 +951,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -962,7 +968,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -979,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -997,7 +1003,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1051,13 +1057,13 @@
         <v>62</v>
       </c>
       <c r="K16">
-        <v>1446</v>
+        <v>1497</v>
       </c>
       <c r="L16">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1167,14 +1173,14 @@
       </c>
       <c r="K21" s="5">
         <f>SUM(K16:K20)</f>
-        <v>9793</v>
+        <v>9844</v>
       </c>
       <c r="L21" s="5">
         <f>SUM(L15:L20)</f>
-        <v>13213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>13264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1344,10 +1350,44 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E32" s="4">
-        <f>SUM(E2:E31)</f>
-        <v>1446</v>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44640.404166666667</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44640.620833333334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="4">
+        <f>SUM(E2:E33)</f>
+        <v>1497</v>
       </c>
     </row>
   </sheetData>

--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D91B11-ABED-4AA3-8731-C565A372FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE63EA8-7CF4-407E-ACC1-5F9042D85DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>BW2005</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +284,10 @@
   </si>
   <si>
     <t>BD06867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD55978</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,27 +655,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="2.4140625" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="2.3984375" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.58203125" customWidth="1"/>
+    <col min="17" max="17" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="27.75" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -693,7 +699,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -737,7 +743,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -781,7 +787,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -812,7 +818,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -835,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -858,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -881,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -914,7 +920,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -934,7 +940,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -951,7 +957,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -968,7 +974,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -985,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1003,7 +1009,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1057,13 +1063,13 @@
         <v>62</v>
       </c>
       <c r="K16">
-        <v>1497</v>
+        <v>1545</v>
       </c>
       <c r="L16">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1173,14 +1179,14 @@
       </c>
       <c r="K21" s="5">
         <f>SUM(K16:K20)</f>
-        <v>9844</v>
+        <v>9892</v>
       </c>
       <c r="L21" s="5">
         <f>SUM(L15:L20)</f>
-        <v>13264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1384,10 +1390,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="4">
-        <f>SUM(E2:E33)</f>
-        <v>1497</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44641.300694444442</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E35" s="4">
+        <f>SUM(E2:E34)</f>
+        <v>1545</v>
       </c>
     </row>
   </sheetData>

--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE63EA8-7CF4-407E-ACC1-5F9042D85DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E5920-DC7D-4C84-B91C-50595D6375E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>BW2005</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>北京杜家坎到赵辛店出京</t>
-  </si>
-  <si>
-    <t>北京杜家坎到赵辛店出京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -288,6 +285,18 @@
   </si>
   <si>
     <t>BD55978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW7058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU0623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW4315</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -684,16 +693,16 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="H1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="8"/>
       <c r="L1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
@@ -716,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -725,7 +734,7 @@
         <v>44567</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>98</v>
@@ -734,10 +743,10 @@
         <v>44568.361111111109</v>
       </c>
       <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
         <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
       </c>
       <c r="T2">
         <v>1170</v>
@@ -760,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -769,7 +778,7 @@
         <v>44626</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>35</v>
@@ -778,10 +787,10 @@
         <v>44586.53125</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T3">
         <v>1170</v>
@@ -858,7 +867,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -903,18 +912,20 @@
       <c r="E8">
         <v>81</v>
       </c>
-      <c r="I8" s="4">
-        <f>SUM(I2:I7)</f>
-        <v>24</v>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
         <v>50</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>51</v>
-      </c>
-      <c r="S8" t="s">
-        <v>52</v>
       </c>
       <c r="T8">
         <v>5850</v>
@@ -936,6 +947,12 @@
       <c r="E9">
         <v>73</v>
       </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="T9" s="4">
         <v>5850</v>
       </c>
@@ -956,6 +973,12 @@
       <c r="E10">
         <v>216</v>
       </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -973,6 +996,12 @@
       <c r="E11">
         <v>216</v>
       </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -990,6 +1019,10 @@
       <c r="E12">
         <v>13</v>
       </c>
+      <c r="I12" s="4">
+        <f>SUM(I2:I11)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -1063,10 +1096,10 @@
         <v>62</v>
       </c>
       <c r="K16">
-        <v>1545</v>
+        <v>1884</v>
       </c>
       <c r="L16">
-        <v>1545</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -1086,10 +1119,10 @@
         <v>71</v>
       </c>
       <c r="K17">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -1179,11 +1212,11 @@
       </c>
       <c r="K21" s="5">
         <f>SUM(K16:K20)</f>
-        <v>9892</v>
+        <v>10235</v>
       </c>
       <c r="L21" s="5">
         <f>SUM(L15:L20)</f>
-        <v>13312</v>
+        <v>13655</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -1296,7 +1329,7 @@
         <v>44634.984722222223</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1313,10 +1346,10 @@
         <v>44635.335416666669</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1330,7 +1363,7 @@
         <v>44635.961111111108</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1347,10 +1380,10 @@
         <v>44637.745833333334</v>
       </c>
       <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
       </c>
       <c r="E31">
         <v>32</v>
@@ -1364,7 +1397,7 @@
         <v>44640.404166666667</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1381,7 +1414,7 @@
         <v>44640.620833333334</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1398,7 +1431,7 @@
         <v>44641.300694444442</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -1408,9 +1441,77 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E35" s="4">
-        <f>SUM(E2:E34)</f>
-        <v>1545</v>
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44651.066666666666</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44651.09652777778</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44651.115972222222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44652.004166666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E39" s="4">
+        <f>SUM(E2:E38)</f>
+        <v>1884</v>
       </c>
     </row>
   </sheetData>

--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E5920-DC7D-4C84-B91C-50595D6375E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A7961-324D-4AF6-8839-170DCCD2627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>BW2005</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,10 @@
   </si>
   <si>
     <t>BW4315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD22950</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,27 +668,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" customWidth="1"/>
-    <col min="6" max="6" width="2.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="6" max="6" width="2.4140625" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="2.59765625" customWidth="1"/>
+    <col min="10" max="10" width="2.58203125" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.75" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" ht="27.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -708,7 +712,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -752,7 +756,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,7 +800,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -827,7 +831,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -850,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -873,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -896,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -931,7 +935,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -957,7 +961,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -980,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1019,12 +1023,14 @@
       <c r="E12">
         <v>13</v>
       </c>
-      <c r="I12" s="4">
-        <f>SUM(I2:I11)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1041,8 +1047,12 @@
         <v>21</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I13" s="4">
+        <f>SUM(I2:I12)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1096,13 +1106,13 @@
         <v>62</v>
       </c>
       <c r="K16">
-        <v>1884</v>
+        <v>1963</v>
       </c>
       <c r="L16">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1119,13 +1129,13 @@
         <v>71</v>
       </c>
       <c r="K17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1212,14 +1222,14 @@
       </c>
       <c r="K21" s="5">
         <f>SUM(K16:K20)</f>
-        <v>10235</v>
+        <v>10315</v>
       </c>
       <c r="L21" s="5">
         <f>SUM(L15:L20)</f>
-        <v>13655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>13735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1236,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1253,7 +1263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1287,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1304,7 +1314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1321,7 +1331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1508,10 +1518,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E39" s="4">
-        <f>SUM(E2:E38)</f>
-        <v>1884</v>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44653.9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <f>SUM(E2:E39)</f>
+        <v>1963</v>
       </c>
     </row>
   </sheetData>

--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A7961-324D-4AF6-8839-170DCCD2627D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C9C92-F29C-46FC-B7C4-0F1EA3840272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -671,7 +669,7 @@
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1068,6 +1066,9 @@
       <c r="E14">
         <v>76</v>
       </c>
+      <c r="M14">
+        <v>2280</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1088,6 +1089,9 @@
       <c r="L15">
         <v>3420</v>
       </c>
+      <c r="M15">
+        <v>3420</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1111,8 +1115,11 @@
       <c r="L16">
         <v>1963</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1134,8 +1141,14 @@
       <c r="L17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>29</v>
+      </c>
+      <c r="P17">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1157,8 +1170,14 @@
       <c r="L18">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>133</v>
+      </c>
+      <c r="P18">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1180,8 +1199,14 @@
       <c r="L19">
         <v>2340</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>2340</v>
+      </c>
+      <c r="P19">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1203,8 +1228,14 @@
       <c r="L20">
         <v>5850</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>5850</v>
+      </c>
+      <c r="P20">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1228,8 +1259,19 @@
         <f>SUM(L15:L20)</f>
         <v>13735</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="5">
+        <f>SUM(M14:M20)</f>
+        <v>16015</v>
+      </c>
+      <c r="P21" s="5">
+        <f>SUM(P17:P20)</f>
+        <v>13890</v>
+      </c>
+      <c r="S21">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1245,8 +1287,14 @@
       <c r="E22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>1963</v>
+      </c>
+      <c r="S22">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1262,8 +1310,15 @@
       <c r="E23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>29</v>
+      </c>
+      <c r="S23" s="5">
+        <f>SUM(S21:S22)</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1279,8 +1334,11 @@
       <c r="E24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1296,8 +1354,12 @@
       <c r="E25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P25" s="5">
+        <f>SUM(P21:P24)</f>
+        <v>16015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1314,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1331,7 +1393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1348,7 +1410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1365,7 +1427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1382,7 +1444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1399,7 +1461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>

--- a/发票单子.xlsx
+++ b/发票单子.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50C9C92-F29C-46FC-B7C4-0F1EA3840272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ECF145-0B42-4BC6-A01D-E9A6C52909CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>BW2005</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +301,22 @@
   </si>
   <si>
     <t>BD22950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BD55088 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买标书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD02597</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +357,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +409,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -368,27 +429,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,949 +878,1047 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="2.4140625" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="2.58203125" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="4"/>
+    <col min="2" max="2" width="19.1328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="4"/>
+    <col min="6" max="6" width="2.3984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="4"/>
+    <col min="10" max="10" width="2.59765625" style="4" customWidth="1"/>
+    <col min="11" max="14" width="9.06640625" style="4"/>
+    <col min="15" max="15" width="2.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.06640625" style="4"/>
+    <col min="17" max="17" width="14.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.06640625" style="4"/>
+    <col min="19" max="19" width="10.59765625" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" ht="27.75" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="L1" s="7" t="s">
+      <c r="I1" s="3"/>
+      <c r="L1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="Q1" s="7" t="s">
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="Q1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>44548.011111111111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
         <v>44567</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>98</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="7">
         <v>44568.361111111109</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>1170</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>44548.088194444441</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
         <v>44626</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>35</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="7">
         <v>44586.53125</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>1170</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>44554.621527777781</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="8">
         <f>SUM(N2:N3)</f>
         <v>133</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="8">
         <f>SUM(T2:T3)</f>
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>44567.647222222222</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>44567.668055555558</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>44567.788888888892</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>44567.835416666669</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>81</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>5850</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>44567.879861111112</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>73</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="8">
         <v>5850</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>44568.229166666664</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>216</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>44586.618750000001</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>216</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>44589.875694444447</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>44589.925000000003</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>21</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4">
+      <c r="H13" s="5"/>
+      <c r="I13" s="8">
         <f>SUM(I2:I12)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>44591.927083333336</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>76</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>2280</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>44604.86041666667</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>77</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>3420</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>3420</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>44609.384027777778</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>62</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>1963</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>1963</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>1963</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>44609.581944444442</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>71</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>29</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>29</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>29</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>3420</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>44615.739583333336</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>29</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>133</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>133</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>133</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>2340</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>44623.383333333331</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>51</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>2340</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>2340</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>2340</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>5850</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>44629.898611111108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>24</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>5850</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>5850</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>5850</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>2280</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>44630.415277777778</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>25</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="10">
         <f>SUM(K16:K20)</f>
         <v>10315</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="10">
         <f>SUM(L15:L20)</f>
         <v>13735</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="10">
         <f>SUM(M14:M20)</f>
         <v>16015</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="10">
         <f>SUM(P17:P20)</f>
         <v>13890</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <v>3420</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>44631.729861111111</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>15</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="4">
         <v>1963</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>2280</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>44631.789583333331</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>25</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="4">
         <v>29</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="10">
         <f>SUM(S21:S22)</f>
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>44632.386111111111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
         <v>23</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>44632.852083333331</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
         <v>23</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="10">
         <f>SUM(P21:P24)</f>
         <v>16015</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>44633.396527777775</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>44633.626388888886</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>44634.984722222223</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>44635.335416666669</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>44635.961111111108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>44637.745833333334</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>44640.404166666667</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>44640.620833333334</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="7">
         <v>44641.300694444442</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="7">
         <v>44651.066666666666</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="9">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="7">
         <v>44651.09652777778</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="7">
         <v>44651.115972222222</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="7">
         <v>44652.004166666666</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="7">
         <v>44653.9</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="9">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="4">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="E40" s="8">
         <f>SUM(E2:E39)</f>
         <v>1963</v>
       </c>
     </row>
+    <row r="41" spans="1:22" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="12"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>1</v>
+      </c>
+      <c r="B44" s="7">
+        <v>44659.5625</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44659.604861111111</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21">
+        <v>44659</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="20">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A42:E43"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A41:V41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
